--- a/local/public/excel_files/ce_regis.xlsx
+++ b/local/public/excel_files/ce_regis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>CourseEvent-ID</t>
   </si>
@@ -41,19 +41,31 @@
     <t>Recipient name</t>
   </si>
   <si>
-    <t>E20201120-0001</t>
+    <t>C20201120-0001</t>
   </si>
   <si>
     <t>2020-11-19</t>
   </si>
   <si>
-    <t>กิจกรรม ที่ 2</t>
-  </si>
-  <si>
-    <t>คุณชฎาพร2 พิกุล</t>
+    <t>กิจกรรม ที่ 1</t>
+  </si>
+  <si>
+    <t>คุณชฎาพร1 พิกุล</t>
   </si>
   <si>
     <t>Admin</t>
+  </si>
+  <si>
+    <t>C20201120-0002</t>
+  </si>
+  <si>
+    <t>คุณชฎาพร3 พิกุล</t>
+  </si>
+  <si>
+    <t>C20201120-0003</t>
+  </si>
+  <si>
+    <t>คุณชฎาพร4 พิกุล</t>
   </si>
 </sst>
 </file>
@@ -392,7 +404,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,10 +440,10 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -449,6 +461,58 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -456,7 +520,7 @@
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>

--- a/local/public/excel_files/ce_regis.xlsx
+++ b/local/public/excel_files/ce_regis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>CourseEvent-ID</t>
   </si>
@@ -39,33 +39,6 @@
   </si>
   <si>
     <t>Recipient name</t>
-  </si>
-  <si>
-    <t>C20201120-0001</t>
-  </si>
-  <si>
-    <t>2020-11-19</t>
-  </si>
-  <si>
-    <t>กิจกรรม ที่ 1</t>
-  </si>
-  <si>
-    <t>คุณชฎาพร1 พิกุล</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>C20201120-0002</t>
-  </si>
-  <si>
-    <t>คุณชฎาพร3 พิกุล</t>
-  </si>
-  <si>
-    <t>C20201120-0003</t>
-  </si>
-  <si>
-    <t>คุณชฎาพร4 พิกุล</t>
   </si>
 </sst>
 </file>
@@ -404,7 +377,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,84 +409,6 @@
       </c>
       <c r="H1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/local/public/excel_files/ce_regis.xlsx
+++ b/local/public/excel_files/ce_regis.xlsx
@@ -15,30 +15,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
-  <si>
-    <t>CourseEvent-ID</t>
-  </si>
-  <si>
-    <t>Customer-ID</t>
-  </si>
-  <si>
-    <t>Ticket number</t>
-  </si>
-  <si>
-    <t>Recipient-ID</t>
-  </si>
-  <si>
-    <t>Register date</t>
-  </si>
-  <si>
-    <t>CourseEventID</t>
-  </si>
-  <si>
-    <t>Customer name</t>
-  </si>
-  <si>
-    <t>Recipient name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+  <si>
+    <t>วันเดือนปี2</t>
+  </si>
+  <si>
+    <t>เลขที่เอกสาร</t>
+  </si>
+  <si>
+    <t>ชื่อ-นามสกุล</t>
+  </si>
+  <si>
+    <t>มูลค่าสินค้า</t>
+  </si>
+  <si>
+    <t>ภาษีมูลค่าเพิ่ม</t>
+  </si>
+  <si>
+    <t>รวม</t>
+  </si>
+  <si>
+    <t>เงินสด</t>
+  </si>
+  <si>
+    <t>เงินโอน</t>
+  </si>
+  <si>
+    <t>เครดิต</t>
+  </si>
+  <si>
+    <t>Ai-Cash</t>
   </si>
 </sst>
 </file>
@@ -62,10 +68,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -373,11 +376,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -385,30 +388,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
         <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -424,5 +433,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>